--- a/breeding_patterns - win, sum/all F1 mice/Seasonal_Births_ IS _ 4 yr.xlsx
+++ b/breeding_patterns - win, sum/all F1 mice/Seasonal_Births_ IS _ 4 yr.xlsx
@@ -17,28 +17,28 @@
     <t xml:space="preserve">BirthSeason</t>
   </si>
   <si>
-    <t xml:space="preserve">1992-1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996-1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-2023</t>
+    <t xml:space="preserve">1991-1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995-1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-2022</t>
   </si>
   <si>
     <t xml:space="preserve">Summer</t>
@@ -410,28 +410,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="C2" t="n">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="E2" t="n">
-        <v>754</v>
+        <v>546</v>
       </c>
       <c r="F2" t="n">
-        <v>972</v>
+        <v>1085</v>
       </c>
       <c r="G2" t="n">
-        <v>792</v>
+        <v>855</v>
       </c>
       <c r="H2" t="n">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="I2" t="n">
-        <v>679</v>
+        <v>654</v>
       </c>
     </row>
     <row r="3">
@@ -439,28 +439,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="C3" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D3" t="n">
-        <v>444</v>
+        <v>355</v>
       </c>
       <c r="E3" t="n">
-        <v>737</v>
+        <v>595</v>
       </c>
       <c r="F3" t="n">
-        <v>802</v>
+        <v>903</v>
       </c>
       <c r="G3" t="n">
-        <v>846</v>
+        <v>903</v>
       </c>
       <c r="H3" t="n">
-        <v>584</v>
+        <v>525</v>
       </c>
       <c r="I3" t="n">
-        <v>656</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
